--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Icam2-Itgb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Icam2-Itgb2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.76874</v>
+        <v>21.31228666666667</v>
       </c>
       <c r="H2">
-        <v>71.30622</v>
+        <v>63.93686</v>
       </c>
       <c r="I2">
-        <v>0.9555483638834226</v>
+        <v>0.9506775731819035</v>
       </c>
       <c r="J2">
-        <v>0.9555483638834227</v>
+        <v>0.9506775731819034</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>83.95844533333333</v>
+        <v>0.029424</v>
       </c>
       <c r="N2">
-        <v>251.875336</v>
+        <v>0.08827199999999999</v>
       </c>
       <c r="O2">
-        <v>0.9979754487867319</v>
+        <v>0.1473063425232919</v>
       </c>
       <c r="P2">
-        <v>0.9979754487867319</v>
+        <v>0.1473063425232919</v>
       </c>
       <c r="Q2">
-        <v>1995.586457932213</v>
+        <v>0.62709272288</v>
       </c>
       <c r="R2">
-        <v>17960.27812138992</v>
+        <v>5.643834505919999</v>
       </c>
       <c r="S2">
-        <v>0.953613807283986</v>
+        <v>0.1400408362243454</v>
       </c>
       <c r="T2">
-        <v>0.9536138072839861</v>
+        <v>0.1400408362243454</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.76874</v>
+        <v>21.31228666666667</v>
       </c>
       <c r="H3">
-        <v>71.30622</v>
+        <v>63.93686</v>
       </c>
       <c r="I3">
-        <v>0.9555483638834226</v>
+        <v>0.9506775731819035</v>
       </c>
       <c r="J3">
-        <v>0.9555483638834227</v>
+        <v>0.9506775731819034</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>0.510969</v>
       </c>
       <c r="O3">
-        <v>0.002024551213268089</v>
+        <v>0.852693657476708</v>
       </c>
       <c r="P3">
-        <v>0.00202455121326809</v>
+        <v>0.852693657476708</v>
       </c>
       <c r="Q3">
-        <v>4.04836310302</v>
+        <v>3.629972601926667</v>
       </c>
       <c r="R3">
-        <v>36.43526792718</v>
+        <v>32.66975341734</v>
       </c>
       <c r="S3">
-        <v>0.001934556599436521</v>
+        <v>0.810636736957558</v>
       </c>
       <c r="T3">
-        <v>0.001934556599436522</v>
+        <v>0.8106367369575579</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7500946666666667</v>
+        <v>0.7500946666666666</v>
       </c>
       <c r="H4">
         <v>2.250284</v>
       </c>
       <c r="I4">
-        <v>0.03015522621270689</v>
+        <v>0.03345948693899053</v>
       </c>
       <c r="J4">
-        <v>0.03015522621270689</v>
+        <v>0.03345948693899053</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,28 +676,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>83.95844533333333</v>
+        <v>0.029424</v>
       </c>
       <c r="N4">
-        <v>251.875336</v>
+        <v>0.08827199999999999</v>
       </c>
       <c r="O4">
-        <v>0.9979754487867319</v>
+        <v>0.1473063425232919</v>
       </c>
       <c r="P4">
-        <v>0.9979754487867319</v>
+        <v>0.1473063425232919</v>
       </c>
       <c r="Q4">
-        <v>62.97678206615822</v>
+        <v>0.02207078547199999</v>
       </c>
       <c r="R4">
-        <v>566.791038595424</v>
+        <v>0.198637069248</v>
       </c>
       <c r="S4">
-        <v>0.03009417541289158</v>
+        <v>0.004928794643688551</v>
       </c>
       <c r="T4">
-        <v>0.03009417541289158</v>
+        <v>0.004928794643688551</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7500946666666667</v>
+        <v>0.7500946666666666</v>
       </c>
       <c r="H5">
         <v>2.250284</v>
       </c>
       <c r="I5">
-        <v>0.03015522621270689</v>
+        <v>0.03345948693899053</v>
       </c>
       <c r="J5">
-        <v>0.03015522621270689</v>
+        <v>0.03345948693899053</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,10 +744,10 @@
         <v>0.510969</v>
       </c>
       <c r="O5">
-        <v>0.002024551213268089</v>
+        <v>0.852693657476708</v>
       </c>
       <c r="P5">
-        <v>0.00202455121326809</v>
+        <v>0.852693657476708</v>
       </c>
       <c r="Q5">
         <v>0.1277583739106667</v>
@@ -756,10 +756,10 @@
         <v>1.149825365196</v>
       </c>
       <c r="S5">
-        <v>6.105079981530942E-05</v>
+        <v>0.02853069229530197</v>
       </c>
       <c r="T5">
-        <v>6.105079981530943E-05</v>
+        <v>0.02853069229530197</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.066846</v>
       </c>
       <c r="I6">
-        <v>0.01429640990387057</v>
+        <v>0.01586293987910606</v>
       </c>
       <c r="J6">
-        <v>0.01429640990387057</v>
+        <v>0.01586293987910605</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -800,28 +800,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>83.95844533333333</v>
+        <v>0.029424</v>
       </c>
       <c r="N6">
-        <v>251.875336</v>
+        <v>0.08827199999999999</v>
       </c>
       <c r="O6">
-        <v>0.9979754487867319</v>
+        <v>0.1473063425232919</v>
       </c>
       <c r="P6">
-        <v>0.9979754487867319</v>
+        <v>0.1473063425232919</v>
       </c>
       <c r="Q6">
-        <v>29.85691052336178</v>
+        <v>0.010463625568</v>
       </c>
       <c r="R6">
-        <v>268.712194710256</v>
+        <v>0.09417263011199999</v>
       </c>
       <c r="S6">
-        <v>0.01426746608985431</v>
+        <v>0.002336711655257984</v>
       </c>
       <c r="T6">
-        <v>0.01426746608985431</v>
+        <v>0.002336711655257984</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.066846</v>
       </c>
       <c r="I7">
-        <v>0.01429640990387057</v>
+        <v>0.01586293987910606</v>
       </c>
       <c r="J7">
-        <v>0.01429640990387057</v>
+        <v>0.01586293987910605</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>0.510969</v>
       </c>
       <c r="O7">
-        <v>0.002024551213268089</v>
+        <v>0.852693657476708</v>
       </c>
       <c r="P7">
-        <v>0.00202455121326809</v>
+        <v>0.852693657476708</v>
       </c>
       <c r="Q7">
         <v>0.06056947041933333</v>
@@ -880,10 +880,10 @@
         <v>0.545125233774</v>
       </c>
       <c r="S7">
-        <v>2.89438140162591E-05</v>
+        <v>0.01352622822384807</v>
       </c>
       <c r="T7">
-        <v>2.89438140162591E-05</v>
+        <v>0.01352622822384807</v>
       </c>
     </row>
   </sheetData>
